--- a/Sales_Inventory_Project/TestData/TestScript.xlsx
+++ b/Sales_Inventory_Project/TestData/TestScript.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17688" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10956" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
   <si>
     <t>TC_ID</t>
   </si>
@@ -94,9 +94,6 @@
     <t>tony</t>
   </si>
   <si>
-    <t>ZoodS</t>
-  </si>
-  <si>
     <t>TC_03</t>
   </si>
   <si>
@@ -161,6 +158,33 @@
   </si>
   <si>
     <t>5000</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Adoc</t>
+  </si>
+  <si>
+    <t>9876436778</t>
+  </si>
+  <si>
+    <t>Acer</t>
+  </si>
+  <si>
+    <t>Aklan</t>
+  </si>
+  <si>
+    <t>Newmen E120</t>
+  </si>
+  <si>
+    <t>Lezo</t>
+  </si>
+  <si>
+    <t>Abra</t>
+  </si>
+  <si>
+    <t>Bucay</t>
   </si>
 </sst>
 </file>
@@ -184,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +218,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,12 +241,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,6 +558,12 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -538,8 +575,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>9876436778</v>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -605,11 +648,17 @@
       <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="I4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>54</v>
+      </c>
       <c r="K4" t="s">
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -617,54 +666,60 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
       <c r="E6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" t="s">
         <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>47</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>21</v>
@@ -684,15 +739,15 @@
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -700,8 +755,14 @@
       <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D8">
-        <v>9876436778</v>
+      <c r="D8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -709,7 +770,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -723,10 +784,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -734,54 +804,60 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="J11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" t="s">
         <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>21</v>

--- a/Sales_Inventory_Project/TestData/TestScript.xlsx
+++ b/Sales_Inventory_Project/TestData/TestScript.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10956" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15876" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Customer" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
   <si>
     <t>TC_ID</t>
   </si>
@@ -185,6 +185,15 @@
   </si>
   <si>
     <t>Bucay</t>
+  </si>
+  <si>
+    <t>Yacob</t>
+  </si>
+  <si>
+    <t>zyab</t>
+  </si>
+  <si>
+    <t>879644555</t>
   </si>
 </sst>
 </file>
@@ -529,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,7 +554,7 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,7 +574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -585,7 +594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -661,7 +670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +702,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -725,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,7 +754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -765,7 +774,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,7 +791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -799,7 +808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -830,8 +839,17 @@
       <c r="J11" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -861,6 +879,15 @@
       </c>
       <c r="J12" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
